--- a/Documentation/ECCC RTW Application Building and Floor Information Template.xlsx
+++ b/Documentation/ECCC RTW Application Building and Floor Information Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billn\Documents\Priority Items\Office entry app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billn\Documents\Priority Items\Return to Work\GitHub\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4B0137-EF88-428E-A8C3-B0E35A65D26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826EA632-0031-4645-B8C2-75FDCFB05730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>BuildingID</t>
   </si>
@@ -174,6 +168,18 @@
   </si>
   <si>
     <t>This is not shown in the application, it is used for reporting purposes</t>
+  </si>
+  <si>
+    <t>MissionCiritcal</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>MissionCritical</t>
+  </si>
+  <si>
+    <t>this yesy/no field set a floor/zone to be visible only to user's with the BypassmanagerApproval set to yes in teir usersetting record</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421C4008-1779-4E5E-A38E-D9D7C022F18F}">
-  <dimension ref="A2:B27"/>
+  <dimension ref="A2:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,19 +733,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -852,10 +866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A14DD8-5D79-4EF8-B5FE-45061E51B5A9}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,11 +880,12 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -893,13 +908,16 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -920,6 +938,9 @@
       </c>
       <c r="G2">
         <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
